--- a/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12.xlsx
+++ b/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7703DB6E-8BC8-4530-84A0-88745416402C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B77E28-A869-41BA-A655-E70C1EBBB9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio#10" sheetId="1" r:id="rId1"/>
-    <sheet name="Ejercicio#8" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicio#11" sheetId="2" r:id="rId2"/>
     <sheet name="Ejercicio#9" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1405,7 +1405,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1414,10 +1454,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1426,8 +1472,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,9 +1512,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1498,70 +1562,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1844,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
@@ -1862,8 +1862,8 @@
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7"/>
       <c r="G7" t="s">
         <v>110</v>
@@ -1895,22 +1895,22 @@
       <c r="F8" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="54">
         <v>67500</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="54">
         <v>80000</v>
       </c>
-      <c r="I8" s="93">
+      <c r="I8" s="54">
         <v>35000</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="54">
         <v>101000</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="54">
         <v>91500</v>
       </c>
-      <c r="L8" s="93">
+      <c r="L8" s="54">
         <f>SUM(G8:K8)</f>
         <v>375000</v>
       </c>
@@ -1919,37 +1919,37 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="55">
         <f>L8</f>
         <v>375000</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="55">
         <f>L9</f>
         <v>379500</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="56">
         <f>L10</f>
         <v>408500</v>
       </c>
       <c r="F9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="54">
         <v>64000</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="54">
         <v>89500</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="54">
         <v>41000</v>
       </c>
-      <c r="J9" s="93">
+      <c r="J9" s="54">
         <v>97500</v>
       </c>
-      <c r="K9" s="93">
+      <c r="K9" s="54">
         <v>87500</v>
       </c>
-      <c r="L9" s="93">
+      <c r="L9" s="54">
         <f t="shared" ref="L9:L10" si="0">SUM(G9:K9)</f>
         <v>379500</v>
       </c>
@@ -1970,22 +1970,22 @@
       <c r="F10" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="54">
         <v>70500</v>
       </c>
-      <c r="H10" s="93">
+      <c r="H10" s="54">
         <v>86000</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="54">
         <v>29500</v>
       </c>
-      <c r="J10" s="93">
+      <c r="J10" s="54">
         <v>112000</v>
       </c>
-      <c r="K10" s="93">
+      <c r="K10" s="54">
         <v>110500</v>
       </c>
-      <c r="L10" s="93">
+      <c r="L10" s="54">
         <f t="shared" si="0"/>
         <v>408500</v>
       </c>
@@ -2012,8 +2012,8 @@
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2034,15 +2034,15 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="55">
         <f>B9</f>
         <v>375000</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="55">
         <f t="shared" ref="C15:D15" si="1">C9</f>
         <v>379500</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="55">
         <f t="shared" si="1"/>
         <v>408500</v>
       </c>
@@ -2065,15 +2065,15 @@
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="58">
         <f>B15+B16</f>
         <v>576500</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="58">
         <f t="shared" ref="C17:D17" si="2">C15+C16</f>
         <v>575400</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="58">
         <f t="shared" si="2"/>
         <v>614600</v>
       </c>
@@ -2098,15 +2098,15 @@
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="59">
         <f>B17-B18</f>
         <v>371850</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="59">
         <f>C17-C18</f>
         <v>373900</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="60">
         <f>D17-D18</f>
         <v>418700</v>
       </c>
@@ -2116,8 +2116,8 @@
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2136,15 +2136,15 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="55">
         <f>B19</f>
         <v>371850</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="55">
         <f t="shared" ref="C23:D23" si="3">C19</f>
         <v>373900</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="55">
         <f t="shared" si="3"/>
         <v>418700</v>
       </c>
@@ -2167,15 +2167,15 @@
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="88">
+      <c r="B25" s="50">
         <f>B23*B24</f>
         <v>371850</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C25" s="50">
         <f t="shared" ref="C25:D25" si="4">C23*C24</f>
         <v>373900</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="50">
         <f t="shared" si="4"/>
         <v>418700</v>
       </c>
@@ -2201,15 +2201,15 @@
       <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="89">
+      <c r="B27" s="51">
         <f>B25+B26</f>
         <v>577495</v>
       </c>
-      <c r="C27" s="89">
+      <c r="C27" s="51">
         <f t="shared" ref="C27" si="5">C25+C26</f>
         <v>604185</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="51">
         <f>ROUNDUP(D25+D26,0)</f>
         <v>537891</v>
       </c>
@@ -2235,15 +2235,15 @@
       <c r="A29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="89">
+      <c r="B29" s="51">
         <f>B27-B28</f>
         <v>372977</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="51">
         <f t="shared" ref="C29:D29" si="7">C27-C28</f>
         <v>398540</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="51">
         <f t="shared" si="7"/>
         <v>307606</v>
       </c>
@@ -2252,10 +2252,10 @@
       <c r="A30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="100">
+      <c r="B30" s="61">
         <v>44</v>
       </c>
-      <c r="C30" s="100">
+      <c r="C30" s="61">
         <v>44</v>
       </c>
       <c r="D30" s="10">
@@ -2266,15 +2266,15 @@
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="101">
+      <c r="B31" s="62">
         <f>B29*B30</f>
         <v>16410988</v>
       </c>
-      <c r="C31" s="101">
+      <c r="C31" s="62">
         <f t="shared" ref="C31:D31" si="8">C29*C30</f>
         <v>17535760</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="62">
         <f t="shared" si="8"/>
         <v>13534664</v>
       </c>
@@ -2284,8 +2284,8 @@
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,15 +2304,15 @@
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="94">
+      <c r="B35" s="55">
         <f>B19</f>
         <v>371850</v>
       </c>
-      <c r="C35" s="94">
+      <c r="C35" s="55">
         <f t="shared" ref="C35:D35" si="9">C19</f>
         <v>373900</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="55">
         <f t="shared" si="9"/>
         <v>418700</v>
       </c>
@@ -2335,15 +2335,15 @@
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="88">
+      <c r="B37" s="50">
         <f>B35*B36</f>
         <v>371850</v>
       </c>
-      <c r="C37" s="88">
+      <c r="C37" s="50">
         <f t="shared" ref="C37:D37" si="10">C35*C36</f>
         <v>373900</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="50">
         <f t="shared" si="10"/>
         <v>418700</v>
       </c>
@@ -2366,15 +2366,15 @@
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="96">
+      <c r="B39" s="57">
         <f>B37*B38</f>
         <v>16361400</v>
       </c>
-      <c r="C39" s="96">
+      <c r="C39" s="57">
         <f>C37*C38</f>
         <v>16451600</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="57">
         <f t="shared" ref="D39" si="11">D37*D38</f>
         <v>18422800</v>
       </c>
@@ -2384,8 +2384,8 @@
       <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,15 +2404,15 @@
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="94">
+      <c r="B43" s="55">
         <f>B19</f>
         <v>371850</v>
       </c>
-      <c r="C43" s="94">
+      <c r="C43" s="55">
         <f t="shared" ref="C43:D43" si="12">C19</f>
         <v>373900</v>
       </c>
-      <c r="D43" s="94">
+      <c r="D43" s="55">
         <f t="shared" si="12"/>
         <v>418700</v>
       </c>
@@ -2438,15 +2438,15 @@
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="50">
         <f>B43*B44</f>
         <v>310274.98664999998</v>
       </c>
-      <c r="C45" s="88">
+      <c r="C45" s="50">
         <f t="shared" ref="C45:D45" si="13">C43*C44</f>
         <v>310379.99850000005</v>
       </c>
-      <c r="D45" s="88">
+      <c r="D45" s="50">
         <f t="shared" si="13"/>
         <v>358439.85859999998</v>
       </c>
@@ -2471,15 +2471,15 @@
       <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="96">
+      <c r="B47" s="57">
         <f>ROUNDUP(B45*B46,0)</f>
         <v>1115550</v>
       </c>
-      <c r="C47" s="96">
+      <c r="C47" s="57">
         <f t="shared" ref="C47:D47" si="14">ROUNDUP(C45*C46,0)</f>
         <v>1121700</v>
       </c>
-      <c r="D47" s="96">
+      <c r="D47" s="57">
         <f t="shared" si="14"/>
         <v>1256100</v>
       </c>
@@ -2489,23 +2489,23 @@
       <c r="A49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="94">
+      <c r="B50" s="55">
         <f>B45</f>
         <v>310274.98664999998</v>
       </c>
-      <c r="C50" s="94">
+      <c r="C50" s="55">
         <f t="shared" ref="C50:D50" si="15">C45</f>
         <v>310379.99850000005</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="55">
         <f t="shared" si="15"/>
         <v>358439.85859999998</v>
       </c>
@@ -2531,15 +2531,15 @@
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="88">
+      <c r="B52" s="50">
         <f>B50*B51</f>
         <v>347507.985048</v>
       </c>
-      <c r="C52" s="88">
+      <c r="C52" s="50">
         <f t="shared" ref="C52:D52" si="17">C50*C51</f>
         <v>347625.59832000011</v>
       </c>
-      <c r="D52" s="88">
+      <c r="D52" s="50">
         <f t="shared" si="17"/>
         <v>401452.64163199998</v>
       </c>
@@ -2548,15 +2548,15 @@
       <c r="A53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="100">
+      <c r="B53" s="61">
         <f>34000+6500+28000+2500+2500+5000+1000+700+1500+700+950+600+750</f>
         <v>84700</v>
       </c>
-      <c r="C53" s="100">
+      <c r="C53" s="61">
         <f t="shared" ref="C53:D53" si="18">34000+6500+28000+2500+2500+5000+1000+700+1500+700+950+600+750</f>
         <v>84700</v>
       </c>
-      <c r="D53" s="100">
+      <c r="D53" s="61">
         <f t="shared" si="18"/>
         <v>84700</v>
       </c>
@@ -2565,15 +2565,15 @@
       <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="101">
+      <c r="B54" s="62">
         <f>ROUNDUP(B52+B53,0)</f>
         <v>432208</v>
       </c>
-      <c r="C54" s="101">
+      <c r="C54" s="62">
         <f t="shared" ref="C54:D54" si="19">ROUNDUP(C52+C53,0)</f>
         <v>432326</v>
       </c>
-      <c r="D54" s="101">
+      <c r="D54" s="62">
         <f t="shared" si="19"/>
         <v>486153</v>
       </c>
@@ -2583,8 +2583,8 @@
       <c r="A56" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,15 +2637,15 @@
       <c r="A60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="102">
+      <c r="B60" s="63">
         <f>B58*B59</f>
         <v>8998792</v>
       </c>
-      <c r="C60" s="102">
+      <c r="C60" s="63">
         <f t="shared" ref="C60:D60" si="21">C58*C59</f>
         <v>9048380</v>
       </c>
-      <c r="D60" s="102">
+      <c r="D60" s="63">
         <f t="shared" si="21"/>
         <v>10132540</v>
       </c>
@@ -2671,15 +2671,15 @@
       <c r="A62" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="102">
+      <c r="B62" s="63">
         <f>B60+B61</f>
         <v>25409780</v>
       </c>
-      <c r="C62" s="102">
+      <c r="C62" s="63">
         <f t="shared" ref="C62:D62" si="23">C60+C61</f>
         <v>26584140</v>
       </c>
-      <c r="D62" s="102">
+      <c r="D62" s="63">
         <f t="shared" si="23"/>
         <v>23667204</v>
       </c>
@@ -2719,15 +2719,15 @@
       <c r="A65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="96">
+      <c r="B65" s="57">
         <f>B62-B63*B64</f>
         <v>16361399.999999998</v>
       </c>
-      <c r="C65" s="96">
+      <c r="C65" s="57">
         <f t="shared" ref="C65:D65" si="25">C62-C63*C64</f>
         <v>16451599.999999998</v>
       </c>
-      <c r="D65" s="96">
+      <c r="D65" s="57">
         <f t="shared" si="25"/>
         <v>18422800</v>
       </c>
@@ -2737,8 +2737,8 @@
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2808,11 +2808,11 @@
       <c r="A72" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="102">
+      <c r="B72" s="63">
         <f>SUM(B69:B71)</f>
         <v>17909158</v>
       </c>
-      <c r="C72" s="102">
+      <c r="C72" s="63">
         <f>SUM(C69:C71)</f>
         <v>18005626</v>
       </c>
@@ -2825,15 +2825,15 @@
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="94">
+      <c r="B73" s="55">
         <f>B35</f>
         <v>371850</v>
       </c>
-      <c r="C73" s="94">
+      <c r="C73" s="55">
         <f t="shared" ref="C73:D73" si="29">C35</f>
         <v>373900</v>
       </c>
-      <c r="D73" s="94">
+      <c r="D73" s="55">
         <f t="shared" si="29"/>
         <v>418700</v>
       </c>
@@ -2842,15 +2842,15 @@
       <c r="A74" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="96">
+      <c r="B74" s="57">
         <f>B72/B73</f>
         <v>48.162318139034554</v>
       </c>
-      <c r="C74" s="96">
+      <c r="C74" s="57">
         <f t="shared" ref="C74:D74" si="30">C72/C73</f>
         <v>48.156261032361591</v>
       </c>
-      <c r="D74" s="96">
+      <c r="D74" s="57">
         <f t="shared" si="30"/>
         <v>48.161101026988298</v>
       </c>
@@ -2860,8 +2860,8 @@
       <c r="A76" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,15 +2913,15 @@
       <c r="A80" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="102">
+      <c r="B80" s="63">
         <f>B78+B79</f>
         <v>27527708</v>
       </c>
-      <c r="C80" s="102">
+      <c r="C80" s="63">
         <f t="shared" ref="C80:D80" si="32">C78+C79</f>
         <v>27862044.40715342</v>
       </c>
-      <c r="D80" s="102">
+      <c r="D80" s="63">
         <f t="shared" si="32"/>
         <v>29868539.598020859</v>
       </c>
@@ -2947,27 +2947,27 @@
       <c r="A82" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="96">
+      <c r="B82" s="57">
         <f>ROUNDUP(B80-B81,0)</f>
         <v>17823001</v>
       </c>
-      <c r="C82" s="96">
+      <c r="C82" s="57">
         <f t="shared" ref="C82:D82" si="34">ROUNDUP(C80-C81,0)</f>
         <v>18428233</v>
       </c>
-      <c r="D82" s="96">
+      <c r="D82" s="57">
         <f t="shared" si="34"/>
         <v>19942537</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="91"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="86"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="79"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
@@ -3075,15 +3075,15 @@
       <c r="A93" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="102">
+      <c r="B93" s="63">
         <f>B89-SUM(B90:B92)</f>
         <v>1076999</v>
       </c>
-      <c r="C93" s="102">
-        <f t="shared" ref="C93:D93" si="39">C89-SUM(C90:C92)</f>
+      <c r="C93" s="63">
+        <f t="shared" ref="C93" si="39">C89-SUM(C90:C92)</f>
         <v>698567</v>
       </c>
-      <c r="D93" s="102">
+      <c r="D93" s="63">
         <f>D89-SUM(D90:D92)</f>
         <v>645863</v>
       </c>
@@ -3109,15 +3109,15 @@
       <c r="A95" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="96">
+      <c r="B95" s="57">
         <f>B93-B94</f>
         <v>807749.25</v>
       </c>
-      <c r="C95" s="96">
+      <c r="C95" s="57">
         <f t="shared" ref="C95:D95" si="41">C93-C94</f>
         <v>523925.25</v>
       </c>
-      <c r="D95" s="96">
+      <c r="D95" s="57">
         <f t="shared" si="41"/>
         <v>484397.25</v>
       </c>
@@ -3126,15 +3126,15 @@
       <c r="A97" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="103">
+      <c r="B97" s="64">
         <f>ROUNDUP(B81,0)</f>
         <v>9704708</v>
       </c>
-      <c r="C97" s="103">
+      <c r="C97" s="64">
         <f t="shared" ref="C97:D97" si="42">ROUNDUP(C81,0)</f>
         <v>9433812</v>
       </c>
-      <c r="D97" s="103">
+      <c r="D97" s="64">
         <f t="shared" si="42"/>
         <v>9926003</v>
       </c>
@@ -3153,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93E45AE-9F78-4F97-8AB3-5270D62F633D}">
   <dimension ref="B1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3166,19 +3166,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="51"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,8 +3191,8 @@
       <c r="B4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3205,16 +3205,16 @@
       <c r="B6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="73" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="36" t="s">
@@ -3225,15 +3225,15 @@
       <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="53">
         <f>19880800</f>
         <v>19880800</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="53">
         <f>20216000</f>
         <v>20216000</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="74">
         <v>22960000</v>
       </c>
     </row>
@@ -3262,8 +3262,8 @@
       <c r="B13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -3276,16 +3276,16 @@
       <c r="B15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="73" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -3352,8 +3352,8 @@
       <c r="B24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="28"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -3366,8 +3366,8 @@
       <c r="B26" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -3390,8 +3390,8 @@
       <c r="B29" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="28"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -3404,8 +3404,8 @@
       <c r="B31" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="26"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -3418,16 +3418,16 @@
       <c r="B33" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="33"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -3440,31 +3440,31 @@
       <c r="B36" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="35"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="54"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="88"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="55"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="56"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="91"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="116" t="s">
+      <c r="D41" s="73" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -3503,18 +3503,18 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="119">
+      <c r="C44" s="76">
         <f>C42*0.35</f>
         <v>6958280</v>
       </c>
-      <c r="D44" s="119">
+      <c r="D44" s="76">
         <f t="shared" ref="D44:E44" si="1">D42*0.35</f>
         <v>7075600</v>
       </c>
-      <c r="E44" s="119">
+      <c r="E44" s="76">
         <f t="shared" si="1"/>
         <v>8035999.9999999991</v>
       </c>
@@ -3529,8 +3529,8 @@
       <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
       <c r="C50" s="15">
         <v>0</v>
       </c>
-      <c r="D50" s="100">
+      <c r="D50" s="61">
         <v>0</v>
       </c>
       <c r="E50" s="10">
@@ -3622,18 +3622,18 @@
     </row>
     <row r="54" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="54"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="88"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="55"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="56"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="91"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
@@ -3672,8 +3672,8 @@
       <c r="B60" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
       <c r="E60" s="22">
         <f>0</f>
         <v>0</v>
@@ -3689,8 +3689,8 @@
       <c r="B62" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -3749,8 +3749,8 @@
       <c r="B68" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="9">
         <f>SUM(E63:E67)</f>
         <v>292000</v>
@@ -3783,69 +3783,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="15">
-        <f>'Ejercicio#8'!E4</f>
+        <f>'Ejercicio#11'!E4</f>
         <v>0</v>
       </c>
       <c r="C5" s="15"/>
@@ -3854,7 +3854,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="15">
-        <f>'Ejercicio#8'!E66</f>
+        <f>'Ejercicio#11'!E66</f>
         <v>182000</v>
       </c>
       <c r="G5" s="15"/>
@@ -3865,7 +3865,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="15">
-        <f>'Ejercicio#8'!E49</f>
+        <f>'Ejercicio#11'!E49</f>
         <v>0</v>
       </c>
       <c r="C6" s="15"/>
@@ -3893,7 +3893,7 @@
         <v>70</v>
       </c>
       <c r="F7" s="15">
-        <f>'Ejercicio#8'!E68-'Ejercicio#9'!F5</f>
+        <f>'Ejercicio#11'!E68-'Ejercicio#9'!F5</f>
         <v>110000</v>
       </c>
       <c r="G7" s="15"/>
@@ -3944,12 +3944,12 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -3962,18 +3962,18 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="59" t="s">
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4079,21 +4079,21 @@
       <c r="A19" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="98">
         <f>SUM(D8+D18)</f>
         <v>19991589.598020859</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="118">
         <f>H9+H18</f>
         <v>1066765.75</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="48"/>
@@ -4109,44 +4109,44 @@
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
@@ -4203,10 +4203,10 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
@@ -4219,14 +4219,14 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
@@ -4290,9 +4290,9 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="45"/>
       <c r="F41" s="47"/>
       <c r="G41" s="45"/>
@@ -4310,15 +4310,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E32:H32"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A2:H2"/>
@@ -4331,6 +4322,15 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12.xlsx
+++ b/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B77E28-A869-41BA-A655-E70C1EBBB9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F66FE30-4E17-47D5-937A-8177FDDF420E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio#10" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio#11" sheetId="2" r:id="rId2"/>
-    <sheet name="Ejercicio#9" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejercicio#12" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,6 +162,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{36C9D152-2578-479F-A3E3-DF4D9F87FA2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DAVID CORZO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Depreciaciones 
+Impuestos
+Seguros
+Otros gastos indirectos
+Mano de obra directa 
+Supervisión 
+Gastos de mantenimiento
+Calefacción</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B58" authorId="0" shapeId="0" xr:uid="{185029E1-803D-4D46-A16D-BA416144E0E0}">
       <text>
         <r>
@@ -245,89 +276,6 @@
     <author>DAVID CORZO</author>
   </authors>
   <commentList>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{7541AAA3-9B47-42FB-BACD-DD50E976592F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se ha decidido que se no se tendrán cantidades menores a 200,000 en caja
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{022C8872-78BF-4B97-8A56-F902C034B098}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No hay al contado, todo se compró al crédito</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{E04BB81A-3915-4856-921C-1E00616011BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En noviembre se pagará el 50%</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>DAVID CORZO</author>
-  </authors>
-  <commentList>
     <comment ref="F14" authorId="0" shapeId="0" xr:uid="{C8A3DAB9-372D-4472-89A3-425783C912FB}">
       <text>
         <r>
@@ -352,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{ABFE4674-A3D7-4717-93C0-5930E6859FEE}">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{A04F1A9F-B184-4957-85BF-94E86653F7A1}">
       <text>
         <r>
           <rPr>
@@ -381,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="138">
   <si>
     <t>Presupuesto de ventas</t>
   </si>
@@ -536,9 +484,6 @@
     <t>El valor del inventario final de producto terminado es:</t>
   </si>
   <si>
-    <t>Saldo inicial</t>
-  </si>
-  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -566,12 +511,6 @@
     <t>Mano de obra directa</t>
   </si>
   <si>
-    <t>Costos indirectos de fabricación</t>
-  </si>
-  <si>
-    <t>Gastos de fabricación</t>
-  </si>
-  <si>
     <t>Total de Egresos</t>
   </si>
   <si>
@@ -602,9 +541,6 @@
     <t>Pagos</t>
   </si>
   <si>
-    <t>Pagos diciembre</t>
-  </si>
-  <si>
     <t>Presupuesto de pagos</t>
   </si>
   <si>
@@ -614,21 +550,9 @@
     <t>Total de egresos</t>
   </si>
   <si>
-    <t>Cuenta de ahorro</t>
-  </si>
-  <si>
-    <t>Otros Saldo final en caja</t>
-  </si>
-  <si>
     <t>Saldo en caja</t>
   </si>
   <si>
-    <t>Empresa Dudas S.A.</t>
-  </si>
-  <si>
-    <t>Balance general al 30 de Noviembre de 2019</t>
-  </si>
-  <si>
     <t>Activos</t>
   </si>
   <si>
@@ -668,9 +592,6 @@
     <t>(-) Depreciación acumulada de fábrica y maquinaria</t>
   </si>
   <si>
-    <t>Gastos anticipados</t>
-  </si>
-  <si>
     <t>No corriente:</t>
   </si>
   <si>
@@ -692,9 +613,6 @@
     <t>Acreedores</t>
   </si>
   <si>
-    <t>Impuestos por pagar</t>
-  </si>
-  <si>
     <t>Total de pasivos corrientes:</t>
   </si>
   <si>
@@ -707,12 +625,6 @@
     <t>Utilidades retenidas</t>
   </si>
   <si>
-    <t>Pagos al crédito</t>
-  </si>
-  <si>
-    <t>Pagos al contado</t>
-  </si>
-  <si>
     <t>Sector 1</t>
   </si>
   <si>
@@ -752,9 +664,6 @@
     <t xml:space="preserve">Enero </t>
   </si>
   <si>
-    <t>Total de ventas</t>
-  </si>
-  <si>
     <t>Ventas enero</t>
   </si>
   <si>
@@ -773,10 +682,67 @@
     <t>Pagos febrero</t>
   </si>
   <si>
-    <t>Pagos marzo</t>
-  </si>
-  <si>
-    <t>Pagos abril</t>
+    <t>**** por que 47? Pregunta</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marzo </t>
+  </si>
+  <si>
+    <t>Ventas Octubre</t>
+  </si>
+  <si>
+    <t>Ventas Noviembre</t>
+  </si>
+  <si>
+    <t>Compras al crédito</t>
+  </si>
+  <si>
+    <t>Compras al contado</t>
+  </si>
+  <si>
+    <t>Saldo inicial de caja</t>
+  </si>
+  <si>
+    <t>Gastos indirectos de fabricación</t>
+  </si>
+  <si>
+    <t>Préstamo</t>
+  </si>
+  <si>
+    <t>Compra de maquinaria</t>
+  </si>
+  <si>
+    <t>*** por que agarrar el del mes siguiente</t>
+  </si>
+  <si>
+    <t>Empresa S.A.</t>
+  </si>
+  <si>
+    <t>Balance general al 31 de diciembre de 2019</t>
+  </si>
+  <si>
+    <t>Derecho de llave</t>
+  </si>
+  <si>
+    <t>Prestamos a largo plazo</t>
+  </si>
+  <si>
+    <t>Balance general al 31 de marzo de 2019</t>
+  </si>
+  <si>
+    <t>ISR por pagar</t>
+  </si>
+  <si>
+    <t>Utilidades netas</t>
   </si>
 </sst>
 </file>
@@ -786,7 +752,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +860,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -909,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1163,17 +1142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1349,11 +1317,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1373,79 +1387,109 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,82 +1498,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1538,29 +1549,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1844,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,6 +1865,7 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1862,55 +1874,55 @@
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7"/>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>116</v>
+      <c r="B8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="54">
+        <v>103</v>
+      </c>
+      <c r="G8" s="43">
         <v>67500</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="43">
         <v>80000</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="43">
         <v>35000</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="43">
         <v>101000</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="43">
         <v>91500</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="43">
         <f>SUM(G8:K8)</f>
         <v>375000</v>
       </c>
@@ -1919,37 +1931,37 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="44">
         <f>L8</f>
         <v>375000</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="44">
         <f>L9</f>
         <v>379500</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="45">
         <f>L10</f>
         <v>408500</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="54">
+        <v>104</v>
+      </c>
+      <c r="G9" s="43">
         <v>64000</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="43">
         <v>89500</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="43">
         <v>41000</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="43">
         <v>97500</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="43">
         <v>87500</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="43">
         <f t="shared" ref="L9:L10" si="0">SUM(G9:K9)</f>
         <v>379500</v>
       </c>
@@ -1968,24 +1980,24 @@
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="54">
+        <v>105</v>
+      </c>
+      <c r="G10" s="43">
         <v>70500</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="43">
         <v>86000</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="43">
         <v>29500</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="43">
         <v>112000</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="43">
         <v>110500</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="43">
         <f t="shared" si="0"/>
         <v>408500</v>
       </c>
@@ -2012,37 +2024,37 @@
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>116</v>
+      <c r="B14" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="44">
         <f>B9</f>
         <v>375000</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="44">
         <f t="shared" ref="C15:D15" si="1">C9</f>
         <v>379500</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="44">
         <f t="shared" si="1"/>
         <v>408500</v>
       </c>
@@ -2051,10 +2063,10 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="37">
         <v>201500</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="37">
         <v>195900</v>
       </c>
       <c r="D16" s="2">
@@ -2065,15 +2077,15 @@
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="47">
         <f>B15+B16</f>
         <v>576500</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="47">
         <f t="shared" ref="C17:D17" si="2">C15+C16</f>
         <v>575400</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="47">
         <f t="shared" si="2"/>
         <v>614600</v>
       </c>
@@ -2082,14 +2094,14 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="37">
         <v>204650</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="37">
         <f>B16</f>
         <v>201500</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="37">
         <f>C16</f>
         <v>195900</v>
       </c>
@@ -2098,15 +2110,15 @@
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="48">
         <f>B17-B18</f>
         <v>371850</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="48">
         <f>C17-C18</f>
         <v>373900</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="49">
         <f>D17-D18</f>
         <v>418700</v>
       </c>
@@ -2116,35 +2128,35 @@
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>116</v>
+      <c r="B22" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="44">
         <f>B19</f>
         <v>371850</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="44">
         <f t="shared" ref="C23:D23" si="3">C19</f>
         <v>373900</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="44">
         <f t="shared" si="3"/>
         <v>418700</v>
       </c>
@@ -2153,10 +2165,10 @@
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="37">
         <v>1</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="37">
         <v>1</v>
       </c>
       <c r="D24" s="2">
@@ -2167,15 +2179,15 @@
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="41">
         <f>B23*B24</f>
         <v>371850</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="41">
         <f t="shared" ref="C25:D25" si="4">C23*C24</f>
         <v>373900</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="41">
         <f t="shared" si="4"/>
         <v>418700</v>
       </c>
@@ -2184,11 +2196,11 @@
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="38">
         <f>0.55*C23</f>
         <v>205645.00000000003</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="38">
         <f>0.55*D23</f>
         <v>230285.00000000003</v>
       </c>
@@ -2201,15 +2213,15 @@
       <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="42">
         <f>B25+B26</f>
         <v>577495</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="42">
         <f t="shared" ref="C27" si="5">C25+C26</f>
         <v>604185</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="42">
         <f>ROUNDUP(D25+D26,0)</f>
         <v>537891</v>
       </c>
@@ -2218,15 +2230,15 @@
       <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="38">
         <f>ROUNDUP(B23*0.55,0)</f>
         <v>204518</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="38">
         <f t="shared" ref="C28:D28" si="6">ROUNDUP(C23*0.55,0)</f>
         <v>205645</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="38">
         <f t="shared" si="6"/>
         <v>230285</v>
       </c>
@@ -2235,15 +2247,15 @@
       <c r="A29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="42">
         <f>B27-B28</f>
         <v>372977</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="42">
         <f t="shared" ref="C29:D29" si="7">C27-C28</f>
         <v>398540</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="42">
         <f t="shared" si="7"/>
         <v>307606</v>
       </c>
@@ -2252,10 +2264,10 @@
       <c r="A30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="50">
         <v>44</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="50">
         <v>44</v>
       </c>
       <c r="D30" s="10">
@@ -2266,15 +2278,15 @@
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="51">
         <f>B29*B30</f>
         <v>16410988</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="51">
         <f t="shared" ref="C31:D31" si="8">C29*C30</f>
         <v>17535760</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="51">
         <f t="shared" si="8"/>
         <v>13534664</v>
       </c>
@@ -2284,35 +2296,35 @@
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>116</v>
+      <c r="B34" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="55">
+      <c r="B35" s="44">
         <f>B19</f>
         <v>371850</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="44">
         <f t="shared" ref="C35:D35" si="9">C19</f>
         <v>373900</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="44">
         <f t="shared" si="9"/>
         <v>418700</v>
       </c>
@@ -2321,10 +2333,10 @@
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="37">
         <v>1</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="37">
         <v>1</v>
       </c>
       <c r="D36" s="2">
@@ -2335,15 +2347,15 @@
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B37" s="41">
         <f>B35*B36</f>
         <v>371850</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="41">
         <f t="shared" ref="C37:D37" si="10">C35*C36</f>
         <v>373900</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="41">
         <f t="shared" si="10"/>
         <v>418700</v>
       </c>
@@ -2366,15 +2378,15 @@
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="46">
         <f>B37*B38</f>
         <v>16361400</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="46">
         <f>C37*C38</f>
         <v>16451600</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="46">
         <f t="shared" ref="D39" si="11">D37*D38</f>
         <v>18422800</v>
       </c>
@@ -2384,35 +2396,35 @@
       <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>116</v>
+      <c r="B42" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="55">
+      <c r="B43" s="44">
         <f>B19</f>
         <v>371850</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="44">
         <f t="shared" ref="C43:D43" si="12">C19</f>
         <v>373900</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="44">
         <f t="shared" si="12"/>
         <v>418700</v>
       </c>
@@ -2421,11 +2433,11 @@
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="37">
         <f>0.834409</f>
         <v>0.83440899999999996</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="37">
         <f>0.830115</f>
         <v>0.83011500000000005</v>
       </c>
@@ -2438,15 +2450,15 @@
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="50">
+      <c r="B45" s="41">
         <f>B43*B44</f>
         <v>310274.98664999998</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="41">
         <f t="shared" ref="C45:D45" si="13">C43*C44</f>
         <v>310379.99850000005</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="41">
         <f t="shared" si="13"/>
         <v>358439.85859999998</v>
       </c>
@@ -2471,15 +2483,15 @@
       <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="46">
         <f>ROUNDUP(B45*B46,0)</f>
         <v>1115550</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="46">
         <f t="shared" ref="C47:D47" si="14">ROUNDUP(C45*C46,0)</f>
         <v>1121700</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="46">
         <f t="shared" si="14"/>
         <v>1256100</v>
       </c>
@@ -2489,57 +2501,57 @@
       <c r="A49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="55">
+      <c r="B50" s="44">
         <f>B45</f>
         <v>310274.98664999998</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="44">
         <f t="shared" ref="C50:D50" si="15">C45</f>
         <v>310379.99850000005</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D50" s="44">
         <f t="shared" si="15"/>
         <v>358439.85859999998</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="45">
+        <v>107</v>
+      </c>
+      <c r="B51" s="37">
         <f>0.5+0.2+0.25+0.05+0.1+0.02</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="37">
         <f t="shared" ref="C51:D51" si="16">0.5+0.2+0.25+0.05+0.1+0.02</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="37">
         <f t="shared" si="16"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="50">
+        <v>106</v>
+      </c>
+      <c r="B52" s="41">
         <f>B50*B51</f>
         <v>347507.985048</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="41">
         <f t="shared" ref="C52:D52" si="17">C50*C51</f>
         <v>347625.59832000011</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="41">
         <f t="shared" si="17"/>
         <v>401452.64163199998</v>
       </c>
@@ -2548,34 +2560,34 @@
       <c r="A53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="61">
-        <f>34000+6500+28000+2500+2500+5000+1000+700+1500+700+950+600+750</f>
-        <v>84700</v>
-      </c>
-      <c r="C53" s="61">
-        <f t="shared" ref="C53:D53" si="18">34000+6500+28000+2500+2500+5000+1000+700+1500+700+950+600+750</f>
-        <v>84700</v>
-      </c>
-      <c r="D53" s="61">
+      <c r="B53" s="50">
+        <f>2500+1000+700+1500+700+950+600+750</f>
+        <v>8700</v>
+      </c>
+      <c r="C53" s="50">
+        <f t="shared" ref="C53:D53" si="18">2500+1000+700+1500+700+950+600+750</f>
+        <v>8700</v>
+      </c>
+      <c r="D53" s="50">
         <f t="shared" si="18"/>
-        <v>84700</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="51">
         <f>ROUNDUP(B52+B53,0)</f>
-        <v>432208</v>
-      </c>
-      <c r="C54" s="62">
+        <v>356208</v>
+      </c>
+      <c r="C54" s="51">
         <f t="shared" ref="C54:D54" si="19">ROUNDUP(C52+C53,0)</f>
-        <v>432326</v>
-      </c>
-      <c r="D54" s="62">
+        <v>356326</v>
+      </c>
+      <c r="D54" s="51">
         <f t="shared" si="19"/>
-        <v>486153</v>
+        <v>410153</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2583,40 +2595,40 @@
       <c r="A56" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="45" t="s">
-        <v>116</v>
+      <c r="B57" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="37">
         <f>B28</f>
         <v>204518</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="37">
         <f t="shared" ref="C58:D58" si="20">C28</f>
         <v>205645</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="37">
         <f t="shared" si="20"/>
         <v>230285</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2637,15 +2649,15 @@
       <c r="A60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="63">
+      <c r="B60" s="52">
         <f>B58*B59</f>
         <v>8998792</v>
       </c>
-      <c r="C60" s="63">
+      <c r="C60" s="52">
         <f t="shared" ref="C60:D60" si="21">C58*C59</f>
         <v>9048380</v>
       </c>
-      <c r="D60" s="63">
+      <c r="D60" s="52">
         <f t="shared" si="21"/>
         <v>10132540</v>
       </c>
@@ -2671,15 +2683,15 @@
       <c r="A62" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="63">
+      <c r="B62" s="52">
         <f>B60+B61</f>
         <v>25409780</v>
       </c>
-      <c r="C62" s="63">
+      <c r="C62" s="52">
         <f t="shared" ref="C62:D62" si="23">C60+C61</f>
         <v>26584140</v>
       </c>
-      <c r="D62" s="63">
+      <c r="D62" s="52">
         <f t="shared" si="23"/>
         <v>23667204</v>
       </c>
@@ -2688,72 +2700,72 @@
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="45">
+      <c r="B63" s="37">
         <f>B26</f>
         <v>205645.00000000003</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="37">
         <f t="shared" ref="C63:D63" si="24">C26</f>
         <v>230285.00000000003</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="37">
         <f t="shared" si="24"/>
         <v>119191</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="45">
+        <v>109</v>
+      </c>
+      <c r="B64" s="37">
         <v>44</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="37">
         <v>44</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="37">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="57">
+      <c r="B65" s="46">
         <f>B62-B63*B64</f>
         <v>16361399.999999998</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="46">
         <f t="shared" ref="C65:D65" si="25">C62-C63*C64</f>
         <v>16451599.999999998</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D65" s="46">
         <f t="shared" si="25"/>
         <v>18422800</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" s="45" t="s">
-        <v>116</v>
+      <c r="B68" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>18422800</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>33</v>
       </c>
@@ -2787,201 +2799,204 @@
         <v>1256100</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B71" s="15">
         <f>B54</f>
-        <v>432208</v>
+        <v>356208</v>
       </c>
       <c r="C71" s="15">
         <f t="shared" ref="C71:D71" si="28">C54</f>
-        <v>432326</v>
+        <v>356326</v>
       </c>
       <c r="D71" s="15">
         <f t="shared" si="28"/>
-        <v>486153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>410153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="63">
+      <c r="B72" s="52">
         <f>SUM(B69:B71)</f>
-        <v>17909158</v>
-      </c>
-      <c r="C72" s="63">
+        <v>17833158</v>
+      </c>
+      <c r="C72" s="52">
         <f>SUM(C69:C71)</f>
-        <v>18005626</v>
+        <v>17929626</v>
       </c>
       <c r="D72" s="16">
         <f>SUM(D69:D71)</f>
-        <v>20165053</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20089053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="55">
+      <c r="B73" s="44">
         <f>B35</f>
         <v>371850</v>
       </c>
-      <c r="C73" s="55">
+      <c r="C73" s="44">
         <f t="shared" ref="C73:D73" si="29">C35</f>
         <v>373900</v>
       </c>
-      <c r="D73" s="55">
+      <c r="D73" s="44">
         <f t="shared" si="29"/>
         <v>418700</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="57">
+      <c r="B74" s="46">
         <f>B72/B73</f>
-        <v>48.162318139034554</v>
-      </c>
-      <c r="C74" s="57">
+        <v>47.957934651068982</v>
+      </c>
+      <c r="C74" s="46">
         <f t="shared" ref="C74:D74" si="30">C72/C73</f>
-        <v>48.156261032361591</v>
-      </c>
-      <c r="D74" s="57">
+        <v>47.952998127841667</v>
+      </c>
+      <c r="D74" s="46">
         <f t="shared" si="30"/>
-        <v>48.161101026988298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>47.97958681633628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>116</v>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B78" s="15">
-        <f>9618550</f>
-        <v>9618550</v>
+        <f>B28*47</f>
+        <v>9612346</v>
       </c>
       <c r="C78" s="15">
         <f>B18*B74</f>
-        <v>9856418.407153422</v>
+        <v>9814591.3263412677</v>
       </c>
       <c r="D78" s="15">
         <f>C18*C74</f>
-        <v>9703486.5980208609</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9662529.1227600966</v>
+      </c>
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B79" s="15">
         <f>B72</f>
-        <v>17909158</v>
+        <v>17833158</v>
       </c>
       <c r="C79" s="15">
-        <f t="shared" ref="C79:D79" si="31">C72</f>
-        <v>18005626</v>
+        <f t="shared" ref="C79" si="31">C72</f>
+        <v>17929626</v>
       </c>
       <c r="D79" s="15">
-        <f t="shared" si="31"/>
-        <v>20165053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f>D72</f>
+        <v>20089053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="63">
+      <c r="B80" s="52">
         <f>B78+B79</f>
-        <v>27527708</v>
-      </c>
-      <c r="C80" s="63">
+        <v>27445504</v>
+      </c>
+      <c r="C80" s="52">
         <f t="shared" ref="C80:D80" si="32">C78+C79</f>
-        <v>27862044.40715342</v>
-      </c>
-      <c r="D80" s="63">
+        <v>27744217.326341268</v>
+      </c>
+      <c r="D80" s="52">
         <f t="shared" si="32"/>
-        <v>29868539.598020859</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29751582.122760095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B81" s="15">
         <f>B16*B74</f>
-        <v>9704707.1050154623</v>
+        <v>9663523.8321904</v>
       </c>
       <c r="C81" s="15">
-        <f t="shared" ref="C81:D81" si="33">C16*C74</f>
-        <v>9433811.5362396352</v>
+        <f>ROUNDUP(C16*C74,0)</f>
+        <v>9393993</v>
       </c>
       <c r="D81" s="15">
-        <f t="shared" si="33"/>
-        <v>9926002.9216622878</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>ROUNDUP(D16*D74,0)</f>
+        <v>9888593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="57">
-        <f>ROUNDUP(B80-B81,0)</f>
-        <v>17823001</v>
-      </c>
-      <c r="C82" s="57">
-        <f t="shared" ref="C82:D82" si="34">ROUNDUP(C80-C81,0)</f>
-        <v>18428233</v>
-      </c>
-      <c r="D82" s="57">
-        <f t="shared" si="34"/>
-        <v>19942537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="77" t="s">
+      <c r="B82" s="46">
+        <f>B80-B81</f>
+        <v>17781980.167809598</v>
+      </c>
+      <c r="C82" s="46">
+        <f t="shared" ref="C82:D82" si="33">C80-C81</f>
+        <v>18350224.326341268</v>
+      </c>
+      <c r="D82" s="46">
+        <f t="shared" si="33"/>
+        <v>19862989.122760095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="79"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>116</v>
+      <c r="B86" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
@@ -2990,71 +3005,80 @@
         <v>21000000</v>
       </c>
       <c r="C87" s="15">
-        <f t="shared" ref="C87:D87" si="35">C11</f>
+        <f t="shared" ref="C87:D87" si="34">C11</f>
         <v>21252000</v>
       </c>
       <c r="D87" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>22876000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B88" s="10">
-        <f t="shared" ref="B88:D88" si="36">B82</f>
-        <v>17823001</v>
+        <f>B82</f>
+        <v>17781980.167809598</v>
       </c>
       <c r="C88" s="10">
-        <f t="shared" si="36"/>
-        <v>18428233</v>
+        <f t="shared" ref="C88:D88" si="35">C82</f>
+        <v>18350224.326341268</v>
       </c>
       <c r="D88" s="10">
-        <f t="shared" si="36"/>
-        <v>19942537</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="35"/>
+        <v>19862989.122760095</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B89" s="16">
-        <f t="shared" ref="B89:C89" si="37">B87-B88</f>
-        <v>3176999</v>
+        <f t="shared" ref="B89:C89" si="36">B87-B88</f>
+        <v>3218019.8321904019</v>
       </c>
       <c r="C89" s="16">
-        <f t="shared" si="37"/>
-        <v>2823767</v>
+        <f t="shared" si="36"/>
+        <v>2901775.6736587323</v>
       </c>
       <c r="D89" s="16">
         <f>D87-D88</f>
-        <v>2933463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3013010.8772399053</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="45">
+      <c r="B90" s="37">
         <v>0</v>
       </c>
-      <c r="C90" s="45">
+      <c r="C90" s="37">
         <v>0</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="47"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="15">
+        <f>34000+6500+28000+2500+5000</f>
+        <v>76000</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" ref="C91:D91" si="37">34000+6500+28000+2500+5000</f>
+        <v>76000</v>
+      </c>
+      <c r="D91" s="15">
+        <f t="shared" si="37"/>
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>46</v>
       </c>
@@ -3071,72 +3095,76 @@
         <v>2287600</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="63">
+      <c r="B93" s="52">
         <f>B89-SUM(B90:B92)</f>
-        <v>1076999</v>
-      </c>
-      <c r="C93" s="63">
-        <f t="shared" ref="C93" si="39">C89-SUM(C90:C92)</f>
-        <v>698567</v>
-      </c>
-      <c r="D93" s="63">
+        <v>1042019.8321904019</v>
+      </c>
+      <c r="C93" s="52">
+        <f>C89-SUM(C90:C92)</f>
+        <v>700575.67365873232</v>
+      </c>
+      <c r="D93" s="52">
         <f>D89-SUM(D90:D92)</f>
-        <v>645863</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>649410.8772399053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B94" s="15">
         <f>B93*0.25</f>
-        <v>269249.75</v>
+        <v>260504.95804760046</v>
       </c>
       <c r="C94" s="15">
-        <f t="shared" ref="C94:D94" si="40">C93*0.25</f>
-        <v>174641.75</v>
+        <f t="shared" ref="C94:D94" si="39">C93*0.25</f>
+        <v>175143.91841468308</v>
       </c>
       <c r="D94" s="15">
-        <f t="shared" si="40"/>
-        <v>161465.75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="39"/>
+        <v>162352.71930997632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="57">
+      <c r="B95" s="46">
         <f>B93-B94</f>
-        <v>807749.25</v>
-      </c>
-      <c r="C95" s="57">
-        <f t="shared" ref="C95:D95" si="41">C93-C94</f>
-        <v>523925.25</v>
-      </c>
-      <c r="D95" s="57">
-        <f t="shared" si="41"/>
-        <v>484397.25</v>
+        <v>781514.87414280139</v>
+      </c>
+      <c r="C95" s="46">
+        <f t="shared" ref="C95:D95" si="40">C93-C94</f>
+        <v>525431.75524404924</v>
+      </c>
+      <c r="D95" s="46">
+        <f t="shared" si="40"/>
+        <v>487058.15792992897</v>
+      </c>
+      <c r="E95" s="58">
+        <f>B95+C95+D95</f>
+        <v>1794004.7873167796</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="64">
+      <c r="B97" s="53">
         <f>ROUNDUP(B81,0)</f>
-        <v>9704708</v>
-      </c>
-      <c r="C97" s="64">
-        <f t="shared" ref="C97:D97" si="42">ROUNDUP(C81,0)</f>
-        <v>9433812</v>
-      </c>
-      <c r="D97" s="64">
-        <f t="shared" si="42"/>
-        <v>9926003</v>
+        <v>9663524</v>
+      </c>
+      <c r="C97" s="53">
+        <f t="shared" ref="C97:D97" si="41">ROUNDUP(C81,0)</f>
+        <v>9393993</v>
+      </c>
+      <c r="D97" s="53">
+        <f t="shared" si="41"/>
+        <v>9888593</v>
       </c>
     </row>
   </sheetData>
@@ -3150,793 +3178,1167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93E45AE-9F78-4F97-8AB3-5270D62F633D}">
-  <dimension ref="B1:F68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93E45AE-9F78-4F97-8AB3-5270D62F633D}">
+  <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="B37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="15">
+        <f>510300</f>
+        <v>510300</v>
+      </c>
+      <c r="D4" s="15">
+        <f>C31</f>
+        <v>395876.80000000075</v>
+      </c>
+      <c r="E4" s="10">
+        <f>D31</f>
+        <v>721699.04195240512</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="53">
+      <c r="C8" s="15">
+        <f>F39</f>
+        <v>7349999.9999999991</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" ref="D8:E8" si="0">G39</f>
+        <v>7438199.9999999991</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>8006599.9999999991</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="68">
+        <f>F49</f>
+        <v>13977730</v>
+      </c>
+      <c r="D9" s="68">
+        <f t="shared" ref="D9:E9" si="1">G49</f>
+        <v>13841100</v>
+      </c>
+      <c r="E9" s="73">
+        <f t="shared" si="1"/>
+        <v>14050400</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="69">
+        <f>SUM(C8:C9)</f>
+        <v>21327730</v>
+      </c>
+      <c r="D10" s="69">
+        <f>SUM(D8:D9)</f>
+        <v>21279300</v>
+      </c>
+      <c r="E10" s="74">
+        <f>SUM(E8:E9)</f>
+        <v>22057000</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="56">
+        <f>C10+C4</f>
+        <v>21838030</v>
+      </c>
+      <c r="D12" s="56">
+        <f>D10+D4</f>
+        <v>21675176.800000001</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" ref="E12" si="2">E10+E4</f>
+        <v>22778699.041952405</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="15">
+        <f>C57</f>
+        <v>6564395.2000000002</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:E16" si="3">D57</f>
+        <v>7014304</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="3"/>
+        <v>5413865.6000000006</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="15">
+        <f>C62</f>
+        <v>9980000</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" ref="D17:E17" si="4">D62</f>
+        <v>9846592.7999999989</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="4"/>
+        <v>10521456</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="15">
+        <f>'Ejercicio#10'!B47</f>
+        <v>1115550</v>
+      </c>
+      <c r="D18" s="15">
+        <f>'Ejercicio#10'!C47</f>
+        <v>1121700</v>
+      </c>
+      <c r="E18" s="10">
+        <f>'Ejercicio#10'!D47</f>
+        <v>1256100</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="15">
+        <f>'Ejercicio#10'!B54</f>
+        <v>356208</v>
+      </c>
+      <c r="D19" s="15">
+        <f>'Ejercicio#10'!C54</f>
+        <v>356326</v>
+      </c>
+      <c r="E19" s="10">
+        <f>'Ejercicio#10'!D54</f>
+        <v>410153</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15">
+        <f>'Ejercicio#10'!B92</f>
+        <v>2100000</v>
+      </c>
+      <c r="D20" s="15">
+        <f>'Ejercicio#10'!C92</f>
+        <v>2125200</v>
+      </c>
+      <c r="E20" s="10">
+        <f>'Ejercicio#10'!D92</f>
+        <v>2287600</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="15">
+        <f>'Ejercicio#10'!B91</f>
+        <v>76000</v>
+      </c>
+      <c r="D21" s="15">
+        <f>'Ejercicio#10'!C91</f>
+        <v>76000</v>
+      </c>
+      <c r="E21" s="10">
+        <f>'Ejercicio#10'!D91</f>
+        <v>76000</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="70">
+        <f>SUM(C16:C21)</f>
+        <v>20192153.199999999</v>
+      </c>
+      <c r="D22" s="70">
+        <f t="shared" ref="D22:E22" si="5">SUM(D16:D21)</f>
+        <v>20540122.799999997</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="5"/>
+        <v>19965174.600000001</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15">
+        <f>'Ejercicio#10'!B94</f>
+        <v>260504.95804760046</v>
+      </c>
+      <c r="E25" s="10">
+        <f>'Ejercicio#10'!C94</f>
+        <v>175143.91841468308</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10">
+        <f>2500000</f>
+        <v>2500000</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="15">
+        <f>1250000</f>
+        <v>1250000</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15">
+        <f>152850</f>
+        <v>152850</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="70">
+        <f>SUM(C25:C28)+C22</f>
+        <v>21442153.199999999</v>
+      </c>
+      <c r="D29" s="70">
+        <f t="shared" ref="D29:E29" si="6">SUM(D25:D28)+D22</f>
+        <v>20953477.758047596</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="6"/>
+        <v>22640318.518414684</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="71">
+        <f>C12-C29</f>
+        <v>395876.80000000075</v>
+      </c>
+      <c r="D31" s="71">
+        <f t="shared" ref="D31:E31" si="7">D12-D29</f>
+        <v>721699.04195240512</v>
+      </c>
+      <c r="E31" s="72">
+        <f t="shared" si="7"/>
+        <v>138380.52353772148</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="15">
         <f>19880800</f>
         <v>19880800</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D37" s="15">
         <f>20216000</f>
         <v>20216000</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E37" s="15">
+        <f>22960000</f>
         <v>22960000</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="F37" s="15">
+        <f>'Ejercicio#10'!B11</f>
+        <v>21000000</v>
+      </c>
+      <c r="G37" s="15">
+        <f>'Ejercicio#10'!C11</f>
+        <v>21252000</v>
+      </c>
+      <c r="H37" s="10">
+        <f>'Ejercicio#10'!D11</f>
+        <v>22876000</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="73" t="s">
+      <c r="C38" s="15">
+        <f>C37-C39</f>
+        <v>12922520</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:H38" si="8">D37-D39</f>
+        <v>13140400</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="8"/>
+        <v>14924000</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="8"/>
+        <v>13650000</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="8"/>
+        <v>13813800</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="8"/>
+        <v>14869400</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="15">
+        <f>C37*0.35</f>
+        <v>6958280</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" ref="D39:H39" si="9">D37*0.35</f>
+        <v>7075600</v>
+      </c>
+      <c r="E39" s="15">
+        <f>E37*0.35</f>
+        <v>8035999.9999999991</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="9"/>
+        <v>7349999.9999999991</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="9"/>
+        <v>7438199.9999999991</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="9"/>
+        <v>8006599.9999999991</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15">
+        <f>C38*0.5</f>
+        <v>6461260</v>
+      </c>
+      <c r="E42" s="15">
+        <f>C38*0.25</f>
+        <v>3230630</v>
+      </c>
+      <c r="F42" s="15">
+        <f>C38*0.25</f>
+        <v>3230630</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15">
+        <f>D38*0.5</f>
+        <v>6570200</v>
+      </c>
+      <c r="F43" s="15">
+        <f>D38*0.25</f>
+        <v>3285100</v>
+      </c>
+      <c r="G43" s="15">
+        <f>D38*0.25</f>
+        <v>3285100</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15">
+        <f>E38*0.5</f>
+        <v>7462000</v>
+      </c>
+      <c r="G44" s="15">
+        <f>E38*0.25</f>
+        <v>3731000</v>
+      </c>
+      <c r="H44" s="10">
+        <f>E38*0.25</f>
+        <v>3731000</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15">
+        <f>F38*0.5</f>
+        <v>6825000</v>
+      </c>
+      <c r="H45" s="10">
+        <f>F38*0.25</f>
+        <v>3412500</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="10">
+        <f>G38*0.5</f>
+        <v>6906900</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="59"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="62">
+        <f>SUM(C42:C48)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="62">
+        <f t="shared" ref="D49:H49" si="10">SUM(D42:D48)</f>
+        <v>6461260</v>
+      </c>
+      <c r="E49" s="62">
+        <f t="shared" si="10"/>
+        <v>9800830</v>
+      </c>
+      <c r="F49" s="62">
+        <f>SUM(F42:F48)</f>
+        <v>13977730</v>
+      </c>
+      <c r="G49" s="62">
+        <f t="shared" si="10"/>
+        <v>13841100</v>
+      </c>
+      <c r="H49" s="62">
+        <f t="shared" si="10"/>
+        <v>14050400</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+    </row>
+    <row r="54" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="15">
+        <f>'Ejercicio#10'!B31</f>
+        <v>16410988</v>
+      </c>
+      <c r="D55" s="15">
+        <f>'Ejercicio#10'!C31</f>
+        <v>17535760</v>
+      </c>
+      <c r="E55" s="10">
+        <f>'Ejercicio#10'!D31</f>
+        <v>13534664</v>
+      </c>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="15">
+        <f>C55*0.6</f>
+        <v>9846592.7999999989</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" ref="D56:E56" si="11">D55*0.6</f>
+        <v>10521456</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="11"/>
+        <v>8120798.3999999994</v>
+      </c>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+    </row>
+    <row r="57" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="63">
+        <f>C55*0.4</f>
+        <v>6564395.2000000002</v>
+      </c>
+      <c r="D57" s="63">
+        <f t="shared" ref="D57:E57" si="12">D55*0.4</f>
+        <v>7014304</v>
+      </c>
+      <c r="E57" s="20">
+        <f t="shared" si="12"/>
+        <v>5413865.6000000006</v>
+      </c>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+    </row>
+    <row r="58" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="52">
+        <v>9980000</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15">
+        <f>C56</f>
+        <v>9846592.7999999989</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="10">
+        <f>D56</f>
+        <v>10521456</v>
+      </c>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+    </row>
+    <row r="62" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="35"/>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="88"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="91"/>
-    </row>
-    <row r="41" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="15">
-        <v>19880800</v>
-      </c>
-      <c r="D42" s="15">
-        <v>20216000</v>
-      </c>
-      <c r="E42" s="15">
-        <v>22960000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="15">
-        <f>C42*0.65</f>
-        <v>12922520</v>
-      </c>
-      <c r="D43" s="15">
-        <f t="shared" ref="D43:E43" si="0">D42*0.65</f>
-        <v>13140400</v>
-      </c>
-      <c r="E43" s="15">
-        <f t="shared" si="0"/>
-        <v>14924000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="76">
-        <f>C42*0.35</f>
-        <v>6958280</v>
-      </c>
-      <c r="D44" s="76">
-        <f t="shared" ref="D44:E44" si="1">D42*0.35</f>
-        <v>7075600</v>
-      </c>
-      <c r="E44" s="76">
-        <f t="shared" si="1"/>
-        <v>8035999.9999999991</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="15">
-        <v>0</v>
-      </c>
-      <c r="D47" s="15">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="15">
-        <v>0</v>
-      </c>
-      <c r="D48" s="15">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="15">
-        <v>0</v>
-      </c>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="15">
-        <v>0</v>
-      </c>
-      <c r="D50" s="61">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="15">
-        <v>0</v>
-      </c>
-      <c r="D51" s="15">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="9">
-        <f t="shared" ref="C52:D52" si="2">SUM(C47:C51)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="9">
-        <f>SUM(E47:E51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="88"/>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="91"/>
-    </row>
-    <row r="57" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="10">
-        <v>364000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="10">
-        <f>E58</f>
-        <v>364000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="22">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="10">
-        <f>110000</f>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="10">
-        <f>E59*0.5</f>
-        <v>182000</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="9">
-        <f>SUM(E63:E67)</f>
-        <v>292000</v>
-      </c>
+      <c r="C62" s="51">
+        <f>SUM(C59:C61)</f>
+        <v>9980000</v>
+      </c>
+      <c r="D62" s="51">
+        <f t="shared" ref="D62:E62" si="13">SUM(D59:D61)</f>
+        <v>9846592.7999999989</v>
+      </c>
+      <c r="E62" s="64">
+        <f t="shared" si="13"/>
+        <v>10521456</v>
+      </c>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="B34:H35"/>
+    <mergeCell ref="B52:E53"/>
     <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B39:E40"/>
-    <mergeCell ref="B55:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B48C4A7-1F91-4E4B-ACCC-985CD571AEAD}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="A1" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="A3" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
+      <c r="A4" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B5" s="15">
-        <f>'Ejercicio#11'!E4</f>
-        <v>0</v>
+        <v>510300</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F5" s="15">
-        <f>'Ejercicio#11'!E66</f>
-        <v>182000</v>
+        <v>252850</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B6" s="15">
-        <f>'Ejercicio#11'!E49</f>
-        <v>0</v>
+        <v>24724830</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F6" s="15">
-        <v>58300</v>
+        <v>9980000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B7" s="15">
-        <f>'Ejercicio#10'!D78</f>
-        <v>9703486.5980208609</v>
+        <v>9618550</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="15">
-        <f>'Ejercicio#11'!E68-'Ejercicio#9'!F5</f>
-        <v>110000</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" s="15">
-        <f>'Ejercicio#10'!D97</f>
-        <v>9926003</v>
+        <v>8998792</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15">
         <f>SUM(B5:B8)</f>
-        <v>19629489.598020859</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="15">
-        <f>'Ejercicio#10'!D94</f>
-        <v>161465.75</v>
-      </c>
+        <v>43852472</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="A9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="10">
         <f>SUM(F5:F8)</f>
-        <v>511765.75</v>
+        <v>10232850</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3944,82 +4346,83 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="E10" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10">
+        <v>2500000</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="100" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
+      <c r="A12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B13" s="15">
-        <f>'Ejercicio#10'!D25</f>
-        <v>418700</v>
+        <v>832500</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F13" s="15">
-        <v>350000</v>
+        <v>25000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B14" s="15">
-        <f>-95000</f>
-        <v>-95000</v>
+        <v>352000</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F14" s="15">
-        <v>205000</v>
+        <v>6610220</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B15" s="15">
-        <f>88000</f>
-        <v>88000</v>
+        <v>95600</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -4030,11 +4433,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B16" s="15">
-        <f>-54600</f>
-        <v>-54600</v>
+        <v>95500</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -4045,10 +4447,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B17" s="15">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -4058,258 +4460,393 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42">
-        <f>SUM(B13:B17)</f>
-        <v>362100</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43">
+      <c r="A18" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34">
+        <f>B13-B14+B15-B16+B17</f>
+        <v>490600</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35">
         <f>SUM(F13:F17)</f>
-        <v>555000</v>
+        <v>31610220</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="98">
+      <c r="A19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="99">
         <f>SUM(D8+D18)</f>
-        <v>19991589.598020859</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="118">
-        <f>H9+H18</f>
-        <v>1066765.75</v>
-      </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
+        <v>44343072</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="112">
+        <f>H9+H18+H11</f>
+        <v>44343070</v>
+      </c>
+      <c r="G19" s="112"/>
+      <c r="H19" s="113"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-    </row>
-    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="15"/>
+      <c r="A23" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+    </row>
+    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="108"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="15">
+        <f>'Ejercicio#11'!E31</f>
+        <v>138380.52353772148</v>
+      </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="15">
+        <f>'Ejercicio#11'!E62</f>
+        <v>10521456</v>
+      </c>
       <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="15">
+        <f>'Ejercicio#11'!H49</f>
+        <v>14050400</v>
+      </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="15">
+        <f>'Ejercicio#11'!E25</f>
+        <v>175143.91841468308</v>
+      </c>
       <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="15">
+        <f>'Ejercicio#10'!D97</f>
+        <v>9888593</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="15">
+        <f>F5-'Ejercicio#11'!D28</f>
+        <v>100000</v>
+      </c>
       <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="15">
+        <f>'Ejercicio#10'!D26</f>
+        <v>119191</v>
+      </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="45"/>
+      <c r="D30" s="15">
+        <f>SUM(B27:B30)</f>
+        <v>24196564.523537721</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="45"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="H31" s="10">
+        <f>SUM(F27:F30)</f>
+        <v>10796599.918414682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="E32" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="15"/>
+      <c r="E33" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="78">
+        <v>1250000</v>
+      </c>
+      <c r="G33" s="57"/>
+      <c r="H33" s="75"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="10">
+        <f>F33</f>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="98"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="15">
+        <f>832500</f>
+        <v>832500</v>
+      </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="15">
+        <v>25000000</v>
+      </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="15">
+        <f>B14+7500</f>
+        <v>359500</v>
+      </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="15">
+        <v>6610220</v>
+      </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="15">
+        <f>B15</f>
+        <v>95600</v>
+      </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="15">
+        <f>'Ejercicio#10'!D95</f>
+        <v>487058.15792992897</v>
+      </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="15">
+        <f>B16</f>
+        <v>95500</v>
+      </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="45"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="15">
+        <v>10000</v>
+      </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="45"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34">
+        <f>B36-B37+B38-B39+B40</f>
+        <v>483100</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35">
+        <f>SUM(F36:F40)</f>
+        <v>32097278.157929927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="99">
+        <f>D30+D41</f>
+        <v>24679664.523537721</v>
+      </c>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="112">
+        <f>H31+H34+H41</f>
+        <v>44143878.076344609</v>
+      </c>
+      <c r="G42" s="112"/>
+      <c r="H42" s="113"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A2:H2"/>
@@ -4322,15 +4859,16 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E32:H32"/>
+    <mergeCell ref="F42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12.xlsx
+++ b/___Cost_Analysis-Notas___/tareas/David_Corzo_-_Ejercicio10,11,12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F66FE30-4E17-47D5-937A-8177FDDF420E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1078167E-3ECB-42E0-AAFD-E8E29DC49118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio#10" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="140">
   <si>
     <t>Presupuesto de ventas</t>
   </si>
@@ -743,6 +743,12 @@
   </si>
   <si>
     <t>Utilidades netas</t>
+  </si>
+  <si>
+    <t>esto es 42,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +34000 de ventas</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1504,10 +1510,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,12 +1525,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1532,6 +1532,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1549,6 +1558,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,15 +1579,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2165,7 @@
         <f t="shared" ref="C23:D23" si="3">C19</f>
         <v>373900</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="45">
         <f t="shared" si="3"/>
         <v>418700</v>
       </c>
@@ -2187,7 +2196,7 @@
         <f t="shared" ref="C25:D25" si="4">C23*C24</f>
         <v>373900</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="5">
         <f t="shared" si="4"/>
         <v>418700</v>
       </c>
@@ -2221,7 +2230,7 @@
         <f t="shared" ref="C27" si="5">C25+C26</f>
         <v>604185</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="117">
         <f>ROUNDUP(D25+D26,0)</f>
         <v>537891</v>
       </c>
@@ -2238,7 +2247,7 @@
         <f t="shared" ref="C28:D28" si="6">ROUNDUP(C23*0.55,0)</f>
         <v>205645</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="118">
         <f t="shared" si="6"/>
         <v>230285</v>
       </c>
@@ -2255,7 +2264,7 @@
         <f t="shared" ref="C29:D29" si="7">C27-C28</f>
         <v>398540</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="117">
         <f t="shared" si="7"/>
         <v>307606</v>
       </c>
@@ -2286,8 +2295,8 @@
         <f t="shared" ref="C31:D31" si="8">C29*C30</f>
         <v>17535760</v>
       </c>
-      <c r="D31" s="51">
-        <f t="shared" si="8"/>
+      <c r="D31" s="64">
+        <f>D29*D30</f>
         <v>13534664</v>
       </c>
     </row>
@@ -2301,19 +2310,19 @@
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="37" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="44">
@@ -2329,64 +2338,64 @@
         <v>418700</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="119">
         <v>1</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="119">
         <v>1</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="119">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="37">
         <f>B35*B36</f>
         <v>371850</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="37">
         <f t="shared" ref="C37:D37" si="10">C35*C36</f>
         <v>373900</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="37">
         <f t="shared" si="10"/>
         <v>418700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="68">
         <v>44</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="68">
         <v>44</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="68">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="59">
         <f>B37*B38</f>
         <v>16361400</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="59">
         <f>C37*C38</f>
         <v>16451600</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="59">
         <f t="shared" ref="D39" si="11">D37*D38</f>
         <v>18422800</v>
       </c>
@@ -2896,12 +2905,12 @@
         <v>9612346</v>
       </c>
       <c r="C78" s="15">
-        <f>B18*B74</f>
-        <v>9814591.3263412677</v>
+        <f>C18*B74</f>
+        <v>9663523.8321904</v>
       </c>
       <c r="D78" s="15">
-        <f>C18*C74</f>
-        <v>9662529.1227600966</v>
+        <f>D18*C74</f>
+        <v>9393992.3332441822</v>
       </c>
       <c r="E78" t="s">
         <v>117</v>
@@ -2934,11 +2943,11 @@
       </c>
       <c r="C80" s="52">
         <f t="shared" ref="C80:D80" si="32">C78+C79</f>
-        <v>27744217.326341268</v>
+        <v>27593149.832190402</v>
       </c>
       <c r="D80" s="52">
         <f t="shared" si="32"/>
-        <v>29751582.122760095</v>
+        <v>29483045.333244182</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2968,11 +2977,11 @@
       </c>
       <c r="C82" s="46">
         <f t="shared" ref="C82:D82" si="33">C80-C81</f>
-        <v>18350224.326341268</v>
+        <v>18199156.832190402</v>
       </c>
       <c r="D82" s="46">
         <f t="shared" si="33"/>
-        <v>19862989.122760095</v>
+        <v>19594452.333244182</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3023,11 +3032,11 @@
       </c>
       <c r="C88" s="10">
         <f t="shared" ref="C88:D88" si="35">C82</f>
-        <v>18350224.326341268</v>
+        <v>18199156.832190402</v>
       </c>
       <c r="D88" s="10">
         <f t="shared" si="35"/>
-        <v>19862989.122760095</v>
+        <v>19594452.333244182</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3040,11 +3049,11 @@
       </c>
       <c r="C89" s="16">
         <f t="shared" si="36"/>
-        <v>2901775.6736587323</v>
+        <v>3052843.1678095981</v>
       </c>
       <c r="D89" s="16">
         <f>D87-D88</f>
-        <v>3013010.8772399053</v>
+        <v>3281547.6667558178</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,6 +3086,9 @@
         <f t="shared" si="37"/>
         <v>76000</v>
       </c>
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -3105,11 +3117,11 @@
       </c>
       <c r="C93" s="52">
         <f>C89-SUM(C90:C92)</f>
-        <v>700575.67365873232</v>
+        <v>851643.16780959815</v>
       </c>
       <c r="D93" s="52">
         <f>D89-SUM(D90:D92)</f>
-        <v>649410.8772399053</v>
+        <v>917947.66675581783</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3122,11 +3134,11 @@
       </c>
       <c r="C94" s="15">
         <f t="shared" ref="C94:D94" si="39">C93*0.25</f>
-        <v>175143.91841468308</v>
+        <v>212910.79195239954</v>
       </c>
       <c r="D94" s="15">
         <f t="shared" si="39"/>
-        <v>162352.71930997632</v>
+        <v>229486.91668895446</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3139,15 +3151,15 @@
       </c>
       <c r="C95" s="46">
         <f t="shared" ref="C95:D95" si="40">C93-C94</f>
-        <v>525431.75524404924</v>
+        <v>638732.37585719861</v>
       </c>
       <c r="D95" s="46">
         <f t="shared" si="40"/>
-        <v>487058.15792992897</v>
+        <v>688460.75006686337</v>
       </c>
       <c r="E95" s="58">
         <f>B95+C95+D95</f>
-        <v>1794004.7873167796</v>
+        <v>2108708.0000668634</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3181,8 +3193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93E45AE-9F78-4F97-8AB3-5270D62F633D}">
   <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,11 +3249,11 @@
       </c>
       <c r="D4" s="15">
         <f>C31</f>
-        <v>395876.80000000075</v>
+        <v>398376.80000000075</v>
       </c>
       <c r="E4" s="10">
         <f>D31</f>
-        <v>721699.04195240512</v>
+        <v>726699.04195240512</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -3361,11 +3373,11 @@
       </c>
       <c r="D12" s="56">
         <f>D10+D4</f>
-        <v>21675176.800000001</v>
+        <v>21677676.800000001</v>
       </c>
       <c r="E12" s="23">
         <f t="shared" ref="E12" si="2">E10+E4</f>
-        <v>22778699.041952405</v>
+        <v>22783699.041952405</v>
       </c>
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
@@ -3471,16 +3483,16 @@
         <v>127</v>
       </c>
       <c r="C19" s="15">
-        <f>'Ejercicio#10'!B54</f>
-        <v>356208</v>
+        <f>'Ejercicio#10'!B54-2500</f>
+        <v>353708</v>
       </c>
       <c r="D19" s="15">
-        <f>'Ejercicio#10'!C54</f>
-        <v>356326</v>
+        <f>'Ejercicio#10'!C54-2500</f>
+        <v>353826</v>
       </c>
       <c r="E19" s="10">
-        <f>'Ejercicio#10'!D54</f>
-        <v>410153</v>
+        <f>'Ejercicio#10'!D54-2500</f>
+        <v>407653</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -3502,7 +3514,9 @@
         <f>'Ejercicio#10'!D92</f>
         <v>2287600</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="37" t="s">
+        <v>139</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
     </row>
@@ -3522,7 +3536,9 @@
         <f>'Ejercicio#10'!D91</f>
         <v>76000</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="37" t="s">
+        <v>138</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
     </row>
@@ -3532,15 +3548,15 @@
       </c>
       <c r="C22" s="70">
         <f>SUM(C16:C21)</f>
-        <v>20192153.199999999</v>
+        <v>20189653.199999999</v>
       </c>
       <c r="D22" s="70">
         <f t="shared" ref="D22:E22" si="5">SUM(D16:D21)</f>
-        <v>20540122.799999997</v>
+        <v>20537622.799999997</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" si="5"/>
-        <v>19965174.600000001</v>
+        <v>19962674.600000001</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
@@ -3577,7 +3593,7 @@
       </c>
       <c r="E25" s="10">
         <f>'Ejercicio#10'!C94</f>
-        <v>175143.91841468308</v>
+        <v>212910.79195239954</v>
       </c>
       <c r="F25" s="37" t="s">
         <v>130</v>
@@ -3633,15 +3649,15 @@
       </c>
       <c r="C29" s="70">
         <f>SUM(C25:C28)+C22</f>
-        <v>21442153.199999999</v>
+        <v>21439653.199999999</v>
       </c>
       <c r="D29" s="70">
         <f t="shared" ref="D29:E29" si="6">SUM(D25:D28)+D22</f>
-        <v>20953477.758047596</v>
+        <v>20950977.758047596</v>
       </c>
       <c r="E29" s="25">
         <f t="shared" si="6"/>
-        <v>22640318.518414684</v>
+        <v>22675585.391952403</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
@@ -3662,15 +3678,15 @@
       </c>
       <c r="C31" s="71">
         <f>C12-C29</f>
-        <v>395876.80000000075</v>
+        <v>398376.80000000075</v>
       </c>
       <c r="D31" s="71">
         <f t="shared" ref="D31:E31" si="7">D12-D29</f>
-        <v>721699.04195240512</v>
+        <v>726699.04195240512</v>
       </c>
       <c r="E31" s="72">
         <f t="shared" si="7"/>
-        <v>138380.52353772148</v>
+        <v>108113.65000000224</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="60"/>
@@ -4200,62 +4216,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="109" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4346,12 +4362,12 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -4368,12 +4384,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="96" t="s">
         <v>95</v>
       </c>
@@ -4481,21 +4497,21 @@
       <c r="A19" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="94">
         <f>SUM(D8+D18)</f>
         <v>44343072</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="115">
         <f>H9+H18+H11</f>
         <v>44343070</v>
       </c>
-      <c r="G19" s="112"/>
-      <c r="H19" s="113"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="39"/>
@@ -4511,56 +4527,56 @@
       <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="106" t="s">
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="109" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="114"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -4568,7 +4584,7 @@
       </c>
       <c r="B27" s="15">
         <f>'Ejercicio#11'!E31</f>
-        <v>138380.52353772148</v>
+        <v>108113.65000000224</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -4597,7 +4613,7 @@
       </c>
       <c r="F28" s="15">
         <f>'Ejercicio#11'!E25</f>
-        <v>175143.91841468308</v>
+        <v>212910.79195239954</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="10"/>
@@ -4633,7 +4649,7 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15">
         <f>SUM(B27:B30)</f>
-        <v>24196564.523537721</v>
+        <v>24166297.650000002</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15"/>
@@ -4654,7 +4670,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="10">
         <f>SUM(F27:F30)</f>
-        <v>10796599.918414682</v>
+        <v>10834366.7919524</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4662,12 +4678,12 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="109" t="s">
+      <c r="E32" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -4697,12 +4713,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="96" t="s">
         <v>95</v>
       </c>
@@ -4763,7 +4779,7 @@
       </c>
       <c r="F38" s="15">
         <f>'Ejercicio#10'!D95</f>
-        <v>487058.15792992897</v>
+        <v>688460.75006686337</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="10"/>
@@ -4812,28 +4828,28 @@
       <c r="G41" s="34"/>
       <c r="H41" s="35">
         <f>SUM(F36:F40)</f>
-        <v>32097278.157929927</v>
+        <v>32298680.750066862</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="99">
+      <c r="B42" s="94">
         <f>D30+D41</f>
-        <v>24679664.523537721</v>
-      </c>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
+        <v>24649397.650000002</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="112">
+      <c r="F42" s="115">
         <f>H31+H34+H41</f>
-        <v>44143878.076344609</v>
-      </c>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
+        <v>44383047.542019263</v>
+      </c>
+      <c r="G42" s="115"/>
+      <c r="H42" s="116"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
@@ -4847,6 +4863,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="F42:H42"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A2:H2"/>
@@ -4859,16 +4885,6 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="F42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
